--- a/medicine/Enfance/Giampaolo_Simi/Giampaolo_Simi.xlsx
+++ b/medicine/Enfance/Giampaolo_Simi/Giampaolo_Simi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giampaolo Simi, né à Viareggio dans la province de Lucques en Toscane le 10 décembre 1965, est un journaliste, un scénariste et un écrivain italien de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Italie, il travaille comme journaliste pour La Repubblica et Il Tirreno. Il collabore à l’écriture des épisodes des séries RIS – Delitti imperfetti (saison cinq et six), l’Ispettore Coliandro et Crimini pour laquelle il scénarise en 2010 sa nouvelle Luce del Nord. Stefano Sollima réalise l’épisode.
 Il est l’auteur de plusieurs romans policiers et d'une série de six romans pour la jeunesse. En France, quatre de ses romans policiers ont été traduits, dont deux dans la collection Série noire. 
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Il buio sotto la candela (1996)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il buio sotto la candela (1996)
 Direttissimi altrove (1999) Publié en français sous le titre Train express pour ailleurs, traduit par Arlette Lauterbach, Paris, Gallimard, coll. « Série noire » no 2671, 2003  (ISBN 2-07-049346-6)
 Figli del tramonto (2000)
 Caccia al re (2001)
@@ -559,12 +578,83 @@
 La notte alle mie spalle (2012) Publié en français sous le titre La Nuit derrière moi, traduit par Sophie Royère, Paris, Sonatine, 2016  (ISBN 978-2-35584-302-0) ; réédition, Paris, LGF, coll. « Le Livre de poche », 2017
 Cosa resta di noi (2015)
 La ragazza sbagliata (2017)
-Come una famiglia (2018)
-Nouvelle
-Luce del Nord (2008) dans l’anthologie Crimini Italiani
-Littérature d'enfance et de jeunesse
-Alphago
-La Notte dei Koyd (2002)
+Come una famiglia (2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giampaolo_Simi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giampaolo_Simi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Luce del Nord (2008) dans l’anthologie Crimini Italiani</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giampaolo_Simi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giampaolo_Simi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alphago</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Notte dei Koyd (2002)
 Io somo Fumiko (2002)
 L’isola di fuoco (2003)
 L'Hombra di Darkmoor (2003)
@@ -573,31 +663,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Giampaolo_Simi</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Giampaolo_Simi</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2001 : Finaliste du Prix Scerbanenco pour Tutto o Nulla (Tout ou rien).
 2008 : Finaliste du Prix Fedeli pour Rosa Elettrica (La Fille électrique).
